--- a/省赛报名统计.xlsx
+++ b/省赛报名统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>姓名</t>
   </si>
@@ -39,6 +39,15 @@
     <t>英文队名</t>
   </si>
   <si>
+    <t>省赛</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
     <t>team01</t>
   </si>
   <si>
@@ -63,6 +72,16 @@
     <t>our life is the most important</t>
   </si>
   <si>
+    <t>一等奖</t>
+  </si>
+  <si>
+    <t>计算机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18485706447
+</t>
+  </si>
+  <si>
     <t>张翔玮</t>
   </si>
   <si>
@@ -82,6 +101,13 @@
   </si>
   <si>
     <t>计科151</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18275112506
+</t>
   </si>
   <si>
     <t>team02</t>
@@ -113,12 +139,20 @@
     <t xml:space="preserve"> 1066573574@qq.com</t>
   </si>
   <si>
+    <t xml:space="preserve">18084315622
+</t>
+  </si>
+  <si>
     <t>张欢鑫</t>
   </si>
   <si>
     <t>1471427006@qq.com</t>
   </si>
   <si>
+    <t xml:space="preserve">13799311588
+</t>
+  </si>
+  <si>
     <t>team03</t>
   </si>
   <si>
@@ -137,6 +171,12 @@
     <t>MWK</t>
   </si>
   <si>
+    <t>三等奖</t>
+  </si>
+  <si>
+    <t>信息安全</t>
+  </si>
+  <si>
     <t>毛宁</t>
   </si>
   <si>
@@ -150,6 +190,9 @@
   </si>
   <si>
     <t>网工151</t>
+  </si>
+  <si>
+    <t>网络工程</t>
   </si>
   <si>
     <t>team04</t>
@@ -171,18 +214,33 @@
 </t>
   </si>
   <si>
+    <t>二等奖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15593595692
+</t>
+  </si>
+  <si>
     <t>钟波</t>
   </si>
   <si>
     <t>76422636@qq.com</t>
   </si>
   <si>
+    <t xml:space="preserve">18212071027
+</t>
+  </si>
+  <si>
     <t>傅厚龙</t>
   </si>
   <si>
     <t xml:space="preserve"> 992888699@qq.com</t>
   </si>
   <si>
+    <t xml:space="preserve">15908552723
+</t>
+  </si>
+  <si>
     <t>team05</t>
   </si>
   <si>
@@ -201,12 +259,23 @@
     <t>Our roast gluten</t>
   </si>
   <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18385027899
+</t>
+  </si>
+  <si>
     <t>杨毅</t>
   </si>
   <si>
     <t xml:space="preserve"> 1024569696@qq.com</t>
   </si>
   <si>
+    <t xml:space="preserve">15186828064
+</t>
+  </si>
+  <si>
     <t>张宇</t>
   </si>
   <si>
@@ -214,6 +283,9 @@
   </si>
   <si>
     <t>民族171</t>
+  </si>
+  <si>
+    <t>民族卓越班</t>
   </si>
   <si>
     <t>team06</t>
@@ -232,6 +304,9 @@
     <t>Raspberry truth</t>
   </si>
   <si>
+    <t>特等奖</t>
+  </si>
+  <si>
     <t>江成</t>
   </si>
   <si>
@@ -244,6 +319,10 @@
     <t xml:space="preserve"> 904932071@qq.com</t>
   </si>
   <si>
+    <t xml:space="preserve">15329360866
+</t>
+  </si>
+  <si>
     <t>team07</t>
   </si>
   <si>
@@ -260,6 +339,13 @@
   </si>
   <si>
     <t>Light  of Darkness</t>
+  </si>
+  <si>
+    <t>电气类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18208413234
+</t>
   </si>
   <si>
     <t>何院卿</t>
@@ -275,10 +361,18 @@
     <t>女</t>
   </si>
   <si>
+    <t xml:space="preserve">18385570427
+</t>
+  </si>
+  <si>
     <t>娄芹</t>
   </si>
   <si>
     <t xml:space="preserve"> 1872106517@qq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18785215304
+</t>
   </si>
 </sst>
 </file>
@@ -286,9 +380,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -315,7 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -323,92 +416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +440,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +453,90 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -453,67 +547,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,115 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,8 +755,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,23 +809,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,40 +838,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,140 +856,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1249,13 +1349,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
@@ -1264,9 +1364,10 @@
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="41.75" customWidth="1"/>
     <col min="9" max="10" width="23.25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:8">
+    <row r="1" ht="19.5" customHeight="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1289,471 +1390,703 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:8">
+    <row r="2" ht="19.5" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4">
+        <v>175</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:8">
+    <row r="3" ht="17.25" customHeight="1" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4">
+        <v>175</v>
+      </c>
+      <c r="L3" s="4">
+        <v>18188293760</v>
+      </c>
     </row>
-    <row r="4" ht="21.75" customHeight="1" spans="1:8">
+    <row r="4" ht="21.75" customHeight="1" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4">
+        <v>151</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" ht="20.25" customHeight="1" spans="1:8">
+    <row r="5" ht="20.25" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4">
+        <v>173</v>
+      </c>
+      <c r="L5" s="4">
+        <v>13337696060</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+    <row r="6" ht="18.75" customHeight="1" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4">
+        <v>175</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:8">
+    <row r="7" ht="19.5" customHeight="1" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="4">
+        <v>175</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:8">
+    <row r="8" ht="19.5" customHeight="1" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="4">
+        <v>151</v>
+      </c>
+      <c r="L8" s="4">
+        <v>13312363142</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:8">
+    <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="4">
+        <v>151</v>
+      </c>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:8">
+    <row r="10" ht="17.25" customHeight="1" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="4">
+        <v>151</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:8">
+    <row r="11" ht="18.75" customHeight="1" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="4">
+        <v>161</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" ht="21.75" customHeight="1" spans="1:8">
+    <row r="12" ht="21.75" customHeight="1" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="4">
+        <v>161</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" ht="21" customHeight="1" spans="1:8">
+    <row r="13" ht="21" customHeight="1" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="4">
+        <v>161</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" ht="20.25" customHeight="1" spans="1:8">
+    <row r="14" ht="20.25" customHeight="1" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="4">
+        <v>154</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1" spans="1:8">
+    <row r="15" ht="24.75" customHeight="1" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="4">
+        <v>154</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="16" ht="24.75" customHeight="1" spans="1:8">
+    <row r="16" ht="24.75" customHeight="1" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="4">
+        <v>171</v>
+      </c>
+      <c r="L16" s="4">
+        <v>18586515730</v>
+      </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="1:8">
+    <row r="17" ht="24" customHeight="1" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="4">
+        <v>173</v>
+      </c>
+      <c r="L17" s="4">
+        <v>18208588617</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:8">
+    <row r="18" ht="18.75" customHeight="1" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="4">
+        <v>173</v>
+      </c>
+      <c r="L18" s="4">
+        <v>18212573496</v>
+      </c>
     </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+    <row r="19" ht="22.5" customHeight="1" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="4">
+        <v>171</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" spans="1:8">
+    <row r="20" ht="19.5" customHeight="1" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="4">
+        <v>173</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1" spans="1:8">
+    <row r="21" ht="16.5" customHeight="1" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="4">
+        <v>173</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="22" ht="20.25" customHeight="1" spans="1:8">
+    <row r="22" ht="20.25" customHeight="1" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="4">
+        <v>175</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -1775,6 +2108,13 @@
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D18" r:id="rId1" display="2667474035@qq.com"/>
